--- a/data/trans_dic/P23_10_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_10_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida</t>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>6,66%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,78%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>9,59%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,65</t>
+          <t>5,57; 11,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,6</t>
+          <t>6,07; 11,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,57</t>
+          <t>5,04; 8,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,89</t>
+          <t>4,83; 9,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,02</t>
+          <t>7,37; 12,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,01</t>
+          <t>10,35; 15,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,47</t>
+          <t>5,12; 9,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,34</t>
+          <t>3,71; 6,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,31</t>
+          <t>3,25; 6,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,24</t>
+          <t>5,32; 10,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,78</t>
+          <t>7,69; 12,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,34</t>
+          <t>9,05; 13,52</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 9,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 8,67</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 6,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 9,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 11,45</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10,12; 13,52</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,18%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>7,88%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,5%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,11%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>7,51%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 14,0</t>
+          <t>3,95; 8,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,24</t>
+          <t>2,95; 6,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,17</t>
+          <t>4,64; 9,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,97</t>
+          <t>3,26; 10,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,35</t>
+          <t>4,43; 11,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,72</t>
+          <t>8,02; 16,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,93</t>
+          <t>7,21; 13,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,03</t>
+          <t>2,64; 5,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,9</t>
+          <t>3,39; 6,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,41</t>
+          <t>5,4; 10,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,22</t>
+          <t>4,55; 13,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,39</t>
+          <t>6,23; 14,28</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 9,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 5,43</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 7,28</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 9,57</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 10,77</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 13,97</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,11%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 11,02</t>
+          <t>3,07; 12,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 18,29</t>
+          <t>2,51; 18,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 12,87</t>
+          <t>3,3; 13,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,25; 12,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 5,71</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,77</t>
+          <t>0,61; 6,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,43; 9,88</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 10,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 12,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 6,82</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 12,5</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 9,02</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 7,63</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 14,27</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 9,13</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 9,95</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>8,87%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>9,36%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>9,12%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,39</t>
+          <t>5,39; 8,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,53</t>
+          <t>5,15; 8,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,03</t>
+          <t>5,36; 8,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,98</t>
+          <t>4,79; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,17</t>
+          <t>7,21; 11,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,86</t>
+          <t>10,41; 14,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,87</t>
+          <t>6,04; 9,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 11,49</t>
+          <t>3,83; 5,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,97</t>
+          <t>3,65; 5,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,64</t>
+          <t>5,82; 9,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,59</t>
+          <t>7,56; 11,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 10,48</t>
+          <t>8,95; 12,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 8,65</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 7,01</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 6,6</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 8,05</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 10,52</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 13,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126424</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>133609</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>110620</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>111717</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21115</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28585</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>119622</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92839</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81397</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>129860</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22731</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>246045</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>226448</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>192016</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>241578</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>43846</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>54575</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90202; 192078</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>98488; 192883</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>82343; 144783</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77427; 156322</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16550; 27150</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23424; 35941</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89911; 162384</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>66027; 123668</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58871; 113014</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93975; 177317</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17888; 27993</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21075; 31486</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>194142; 313776</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>185672; 294998</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>155617; 235134</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>186428; 305833</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>37534; 52354</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>46475; 62080</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>76180</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60036</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88820</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72754</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8641</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>135705</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52797</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65613</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>102904</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>211885</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>112833</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>154434</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>175658</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10167</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14919</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52827; 107350</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40140; 86206</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>62963; 122518</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>44794; 142956</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3135; 8162</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5769; 11738</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>99106; 186207</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35398; 75167</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>45265; 92040</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>73729; 146316</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2938; 8639</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4049; 9282</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>166011; 267453</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>85792; 146454</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>122018; 195999</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>134593; 262365</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7269; 14570</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>11366; 19134</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25971</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31136</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28680</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24219</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10053</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21701</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21121</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24078</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>36024</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>52837</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>49800</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>48297</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12275; 49200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10264; 77274</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13765; 56759</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9066; 49068</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2419; 24850</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9656; 39186</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9104; 42352</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11367; 50236</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19463; 60827</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29223; 114839</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28225; 75394</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>24920; 79984</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>228574</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>224781</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>228120</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>208690</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26193</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37226</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>265381</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>167337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>168131</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>256843</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27820</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>493954</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>392119</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>396251</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>465533</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>54013</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>69494</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180832; 288021</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>174696; 294961</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>182663; 285186</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>161888; 288792</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21294; 32492</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31052; 44259</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>213181; 327451</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>134794; 209404</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>129721; 207800</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>205766; 318636</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22468; 34615</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26659; 38291</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>411301; 595452</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>329769; 484252</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>339637; 459685</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>390584; 556602</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>46304; 62342</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>61725; 80372</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
